--- a/Codigos/ModeloMerton.xlsx
+++ b/Codigos/ModeloMerton.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andresmartinez/Google Drive/ULasalle/2020-I/Riesgos/Github/Riesgos/Codigos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CE58381-0400-BF4C-9BFF-E43018976147}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACF41D5-C591-A548-9C53-FAF1A6A74C39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="940" windowWidth="27640" windowHeight="15960" xr2:uid="{219894B1-EA18-CC4D-82E4-9AB8FA40A193}"/>
   </bookViews>
@@ -72,9 +72,6 @@
     <t>Esperado</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -85,6 +82,9 @@
   </si>
   <si>
     <t>Recuperación de cartera</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -110,13 +110,19 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -248,7 +254,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -270,6 +276,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -588,7 +595,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -601,7 +608,7 @@
     <row r="2" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -617,8 +624,8 @@
         <v>7</v>
       </c>
       <c r="E3" s="5">
-        <f>+(LOG(B4/B5)+(B6-0.5*B7^2)*B8)/(B7*B8)</f>
-        <v>-0.25034333188799374</v>
+        <f>+(LOG(B4/B5)+(B6-0.5*B7^2)*B8)/(B7*SQRT(B8))</f>
+        <v>-0.6132134236338056</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="6"/>
@@ -651,10 +658,10 @@
       </c>
       <c r="E5" s="7">
         <f>+_xlfn.NORM.S.DIST(-E3,TRUE)</f>
-        <v>0.59883907547764836</v>
+        <v>0.73013238500370969</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G5" s="6"/>
     </row>
@@ -671,7 +678,7 @@
         <v>0.2</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" s="6"/>
     </row>
@@ -688,7 +695,7 @@
         <v>0.1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" s="6"/>
     </row>
@@ -713,8 +720,8 @@
         <v>8</v>
       </c>
       <c r="E9" s="5">
-        <f>+(LOG(B4/B5)+(B6+0.5*B7^2)*B8)/(B7*B8)</f>
-        <v>0.24965666811200618</v>
+        <f>+(LOG(B4/B5)+(B6+0.5*B7^2)*B8)/(B7*SQRT(B8))</f>
+        <v>0.61153144775778334</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
@@ -727,8 +734,8 @@
         <v>7</v>
       </c>
       <c r="E10" s="5">
-        <f>+(LOG(B4/B5)+(B6-0.5*B7^2)*B8)/(B7*B8)</f>
-        <v>-0.25034333188799374</v>
+        <f>+(LOG(B4/B5)+(B6-0.5*B7^2)*B8)/(B7*SQRT(B8))</f>
+        <v>-0.6132134236338056</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="6"/>
@@ -751,7 +758,7 @@
       </c>
       <c r="E12" s="5">
         <f>+_xlfn.NORM.S.DIST(-E9,TRUE)</f>
-        <v>0.40142643550659923</v>
+        <v>0.27042390285463846</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
@@ -765,7 +772,7 @@
       </c>
       <c r="E13" s="5">
         <f>+_xlfn.NORM.S.DIST(-E10,TRUE)</f>
-        <v>0.59883907547764836</v>
+        <v>0.73013238500370969</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
@@ -788,16 +795,16 @@
       <c r="D15" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="15">
         <f>+B5*E13-B4*EXP(-B8*B6)*E12</f>
-        <v>45.014706663434673</v>
+        <v>62.996490773242023</v>
       </c>
       <c r="F15" s="10">
         <f>+E15-B5</f>
-        <v>-54.985293336565327</v>
+        <v>-37.003509226757977</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Codigos/ModeloMerton.xlsx
+++ b/Codigos/ModeloMerton.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andresmartinez/Google Drive/ULasalle/2020-I/Riesgos/Github/Riesgos/Codigos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACF41D5-C591-A548-9C53-FAF1A6A74C39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2A36F9-1308-F745-ABFA-3AC13F36EC78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="940" windowWidth="27640" windowHeight="15960" xr2:uid="{219894B1-EA18-CC4D-82E4-9AB8FA40A193}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Activos</t>
   </si>
@@ -72,6 +72,9 @@
     <t>Esperado</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>B</t>
   </si>
   <si>
@@ -84,15 +87,22 @@
     <t>Recuperación de cartera</t>
   </si>
   <si>
-    <t>D</t>
+    <t>Patrimonio</t>
+  </si>
+  <si>
+    <t>N(d1)</t>
+  </si>
+  <si>
+    <t>N(d2)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000%"/>
+    <numFmt numFmtId="168" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -124,7 +134,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -245,6 +255,21 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -254,7 +279,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -277,6 +302,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -592,15 +619,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60591FC6-AF34-5D41-8500-2C27A96EFA90}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="21.83203125" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -608,7 +636,7 @@
     <row r="2" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -625,7 +653,7 @@
       </c>
       <c r="E3" s="5">
         <f>+(LOG(B4/B5)+(B6-0.5*B7^2)*B8)/(B7*SQRT(B8))</f>
-        <v>-0.6132134236338056</v>
+        <v>24.490332518790222</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="6"/>
@@ -650,7 +678,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="5">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
@@ -658,10 +686,10 @@
       </c>
       <c r="E5" s="7">
         <f>+_xlfn.NORM.S.DIST(-E3,TRUE)</f>
-        <v>0.73013238500370969</v>
+        <v>9.3628202233915048E-133</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G5" s="6"/>
     </row>
@@ -678,7 +706,7 @@
         <v>0.2</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" s="6"/>
     </row>
@@ -687,7 +715,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="8">
-        <v>0.5</v>
+        <v>0.02</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -695,7 +723,7 @@
         <v>0.1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7" s="6"/>
     </row>
@@ -704,7 +732,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -721,7 +749,7 @@
       </c>
       <c r="E9" s="5">
         <f>+(LOG(B4/B5)+(B6+0.5*B7^2)*B8)/(B7*SQRT(B8))</f>
-        <v>0.61153144775778334</v>
+        <v>24.524973534941598</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
@@ -735,7 +763,7 @@
       </c>
       <c r="E10" s="5">
         <f>+(LOG(B4/B5)+(B6-0.5*B7^2)*B8)/(B7*SQRT(B8))</f>
-        <v>-0.6132134236338056</v>
+        <v>24.490332518790222</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="6"/>
@@ -758,7 +786,7 @@
       </c>
       <c r="E12" s="5">
         <f>+_xlfn.NORM.S.DIST(-E9,TRUE)</f>
-        <v>0.27042390285463846</v>
+        <v>4.0002935140421689E-133</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
@@ -772,7 +800,7 @@
       </c>
       <c r="E13" s="5">
         <f>+_xlfn.NORM.S.DIST(-E10,TRUE)</f>
-        <v>0.73013238500370969</v>
+        <v>9.3628202233915048E-133</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
@@ -797,14 +825,41 @@
       </c>
       <c r="E15" s="15">
         <f>+B5*E13-B4*EXP(-B8*B6)*E12</f>
-        <v>62.996490773242023</v>
-      </c>
-      <c r="F15" s="10">
-        <f>+E15-B5</f>
-        <v>-37.003509226757977</v>
+        <v>-7.8526024544960879E-132</v>
+      </c>
+      <c r="F15" s="17">
+        <f>+B5-E15</f>
+        <v>10</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D17" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="16">
+        <f>+_xlfn.NORM.S.DIST(E9,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D18" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="16">
+        <f>+_xlfn.NORM.S.DIST(E13,TRUE)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D19" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="16">
+        <f>+B4*E17-B5*E18</f>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
